--- a/FORMACIONES/PROGRAMACIÓN PARA ANALITICA DE DATOS/SEGUIMIENTO/SEGUIMIENTO.xlsx
+++ b/FORMACIONES/PROGRAMACIÓN PARA ANALITICA DE DATOS/SEGUIMIENTO/SEGUIMIENTO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34e177e0cbf82b1c/ONE DRIVE COMPARTIDOS PC/SENATEC/FORMACIONES/PROGRAMACIÓN PARA ANALITICA DE DATOS/SEGUIMIENTO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkCoder Laptop\Desktop\SENATIC\FORMACIONES\PROGRAMACIÓN PARA ANALITICA DE DATOS\SEGUIMIENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{14182BD7-54E9-4A59-BCDE-9FD9E1EF78E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C220029D-1196-4D29-90F2-2433A640B111}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D3772-9384-4361-9BDF-78C36075DB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LENG. PROGR." sheetId="9" r:id="rId1"/>
@@ -18,19 +18,33 @@
     <sheet name="JUNIO" sheetId="11" r:id="rId3"/>
     <sheet name="JULIO" sheetId="12" r:id="rId4"/>
     <sheet name="AGOSTO" sheetId="14" r:id="rId5"/>
-    <sheet name="CONSOLIDADO" sheetId="13" r:id="rId6"/>
+    <sheet name="SEPTIEMBRE" sheetId="15" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -134,19 +148,7 @@
     <t>JULIO</t>
   </si>
   <si>
-    <t>MES</t>
-  </si>
-  <si>
     <t>AGOSTO</t>
-  </si>
-  <si>
-    <t>SEPTIEMBRE</t>
-  </si>
-  <si>
-    <t>OCTUBRE</t>
-  </si>
-  <si>
-    <t>NOVIEMBRE</t>
   </si>
   <si>
     <t>C</t>
@@ -171,6 +173,9 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>WEB B 1-2</t>
   </si>
 </sst>
 </file>
@@ -311,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -516,13 +521,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -601,6 +632,23 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -690,17 +738,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{4EE99DD2-21FE-4F01-8540-2C5AF1B12024}"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -966,6 +1004,885 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16797</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45957</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102847</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA538B6-8BFD-7571-BE4C-0AEB30E20F7E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5207922" y="3491470"/>
+            <a:ext cx="29160" cy="14400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Entrada de lápiz 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA538B6-8BFD-7571-BE4C-0AEB30E20F7E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5201802" y="3485350"/>
+              <a:ext cx="41400" cy="26640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83881</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121681</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50437</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="24" name="Entrada de lápiz 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AABE97-6D98-B8E9-C1C4-464BA63EE7FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5275006" y="3418540"/>
+            <a:ext cx="37800" cy="34920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Entrada de lápiz 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0AABE97-6D98-B8E9-C1C4-464BA63EE7FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5268886" y="3412420"/>
+              <a:ext cx="50040" cy="47160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628078</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9006</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127327</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="25" name="Entrada de lápiz 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D224BE-AB1F-5F9D-B934-0C1E5E7AFC27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5165442" y="3519550"/>
+            <a:ext cx="9000" cy="10800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Entrada de lápiz 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D224BE-AB1F-5F9D-B934-0C1E5E7AFC27}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5159322" y="3513430"/>
+              <a:ext cx="21240" cy="23040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>462478</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>475438</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>179167</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="26" name="Entrada de lápiz 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA702213-8C39-8745-268D-974E520A1A9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4999842" y="2404270"/>
+            <a:ext cx="12960" cy="34920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Entrada de lápiz 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA702213-8C39-8745-268D-974E520A1A9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4993722" y="2398150"/>
+              <a:ext cx="25200" cy="47160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453316</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>477436</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99598</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C21B9A7-9C08-0EAA-811E-F46DAE3CD16A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4990680" y="4048201"/>
+            <a:ext cx="24120" cy="25920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Entrada de lápiz 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C21B9A7-9C08-0EAA-811E-F46DAE3CD16A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4984560" y="4042081"/>
+              <a:ext cx="36360" cy="38160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>573916</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40564</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>115438</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28C49DE-7B87-8CFB-AE50-314463193DEF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5111280" y="4044241"/>
+            <a:ext cx="43920" cy="45720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Entrada de lápiz 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28C49DE-7B87-8CFB-AE50-314463193DEF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5105109" y="4038121"/>
+              <a:ext cx="56261" cy="57960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489316</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1543</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD781D5F-BC15-C329-EB57-C5508F1AD4D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5026680" y="2520363"/>
+            <a:ext cx="45720" cy="119520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Entrada de lápiz 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD781D5F-BC15-C329-EB57-C5508F1AD4D2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5020560" y="2514243"/>
+              <a:ext cx="57960" cy="131760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449716</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>498676</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D746C83-9116-FFC4-18E0-AA33BA0449DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4987080" y="2709952"/>
+            <a:ext cx="48960" cy="33611"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Entrada de lápiz 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D746C83-9116-FFC4-18E0-AA33BA0449DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4980960" y="2703808"/>
+              <a:ext cx="61200" cy="45899"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76114</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142714</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86148</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B953A504-ED70-1AD3-0424-55327B8D1CF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11926080" y="5635083"/>
+            <a:ext cx="66600" cy="118440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Entrada de lápiz 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B953A504-ED70-1AD3-0424-55327B8D1CF8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11919960" y="5628963"/>
+              <a:ext cx="78840" cy="130680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T20:48:43.835"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12 39 88 0 0,'0'0'8'0'0,"-2"-4"0"0"0,-5-11 0 0 0,4 7-1 0 0,4 2-6 0 0,-1 6-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 1 1 0 0,7 1-3 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,12 5 0 0 0,-18-7-78 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T20:49:16.124"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">138 5 2424 0 0,'0'0'1501'0'0,"-1"3"-4314"0"0,-8 20 2340 0 0,9-22 10 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1395.29">37 79 2240 0 0,'0'0'625'0'0,"0"1"-446"0"0,-1 1-177 0 0,-1 8-830 0 0,2-6 98 0 0,1 0 290 0 0,5-2 301 0 0,-4-3 110 0 0,23 1-278 0 0,-24 0-106 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1728.42">69 39 88 0 0,'0'0'1080'0'0,"0"1"-907"0"0,0 3-178 0 0,-1-4-194 0 0,11 2-562 0 0,10-5 669 0 0,-17 2-112 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T20:49:23.227"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">24 30 8080 0 0,'0'0'9233'0'0,"-2"-3"-8725"0"0,-6-10-202 0 0,6 10-48 0 0,2 2 4 0 0,-1-3-42 0 0,0-1-152 0 0,-3 4 300 0 0,-2 1-2588 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T20:51:02.274"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">17 96 88 0 0,'0'0'24'0'0,"1"-3"-17"0"0,4-12-5 0 0,-3 12 2 0 0,0-10-1 0 0,-2 13-3 0 0,0-6 0 0 0,1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,-3-1 0 0 0,2 1 0 0 0,-1-4 302 0 0,-2 8-3 0 0,1 1 307 0 0,0 1-2 0 0,0-5-94 0 0,0 0 1464 0 0,-5 3 683 0 0,2 2-2532 0 0,2 0 526 0 0,0 0-458 0 0,-2 0-105 0 0,2 1-30 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 2 0 0 0,-4 6-107 0 0,3-4 1368 0 0,2-4-1541 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-717 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T21:08:17.129"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">67 72 88 0 0,'0'0'156'0'0,"-3"-2"553"0"0,-12-7 1009 0 0,11 5-1004 0 0,0-1-216 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-5-10 0 0 0,5 8-397 0 0,2 8-43 0 0,1-1-110 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-2 1 0 0,0 2 43 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,-1 14-975 0 0,1-11 518 0 0,-3 30-1307 0 0,3-30 473 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T21:08:18.133"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 126 88 0 0,'0'0'1152'0'0,"-2"-3"-832"0"0,-5-24-32 0 0,-4-24 4696 0 0,18 9-2168 0 0,-7 42-2846 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,12 7-1297 0 0,-9-3 972 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,3 8 1 0 0,10 33-2776 0 0,-14-42 2341 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="902.53">82 99 2512 0 0,'0'0'968'0'0,"3"2"-3187"0"0,32 22 1559 0 0,-34-23 219 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T21:16:36.465"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">127 289 2336 0 0,'0'-241'99'0'0,"0"193"987"0"0,-4 49-487 0 0,-30 7 1 0 0,34-8-600 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-5 43 0 0 0,-2 152 180 0 0,3-152 203 0 0,1-36 135 0 0,0-6 39 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-4 3 0 0 0,6-4-233 0 0,0 0-46 0 0,-2 1-198 0 0,2-1 184 0 0,0-1-120 0 0,-3 3-24 0 0,-1 0-165 0 0,5-3 27 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-14-1-891 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T21:16:35.514"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">61 9 2336 0 0,'0'0'4544'0'0,"-3"0"-3891"0"0,-22-8-233 0 0,23 8-335 0 0,2 0-155 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,-2 1-1 0 0,-3 0-3898 0 0,4 1 3922 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 2-288 0 0,0-3-593 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.45">135 36 3232 0 0,'0'0'48'0'0,"-3"0"-2625"0"0,0 0 2542 0 0,-11-2-130 0 0,12 2 63 0 0,-3 1 21 0 0,-7 2 45 0 0,10 0-11 0 0,-1 1-21 0 0,1 1 34 0 0,4 2 27 0 0,-1 1 7 0 0,2-2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-2 0 0 0,1-2-16 0 0,-3-2-64 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-09-02T21:16:44.283"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">184 0 104 0 0,'-19'42'0'0'0,"-4"3"0"0"0,0-2 0 0 0,-11 21 0 0 0,2-14 0 0 0,7-13 8 0 0,2-2 0 0 0,18-22-8 0 0,10-13 0 0 0,13-16 0 0 0,5-9 8 0 0,-6-16-8 0 0,-4-11 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -1173,69 +2090,69 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.703125" customWidth="1"/>
+    <col min="2" max="2" width="23.87890625" customWidth="1"/>
+    <col min="3" max="3" width="25.41015625" customWidth="1"/>
+    <col min="4" max="4" width="24.41015625" customWidth="1"/>
+    <col min="5" max="5" width="6.87890625" customWidth="1"/>
+    <col min="6" max="6" width="5.234375" customWidth="1"/>
+    <col min="7" max="7" width="7.41015625" customWidth="1"/>
+    <col min="8" max="8" width="5.5859375" customWidth="1"/>
+    <col min="9" max="9" width="5.41015625" customWidth="1"/>
+    <col min="10" max="10" width="5.1171875" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="25" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="32"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -1260,9 +2177,9 @@
       <c r="L3" s="3">
         <v>8</v>
       </c>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1287,7 +2204,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1310,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -1333,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1356,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1379,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1402,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1425,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1448,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1471,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1494,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1517,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1540,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -1563,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -1586,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -1609,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -1632,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -1655,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -1678,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -1701,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -1724,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -1747,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -1770,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -1793,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -1816,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -1839,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -1862,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -1885,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -1908,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -1931,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -1954,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -1977,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -2000,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -2023,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -2046,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -2069,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -2092,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -2115,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -2138,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -2161,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -2184,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -2207,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -2230,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -2253,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -2276,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -2299,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -2322,7 +3239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -2345,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="9">
         <v>48</v>
       </c>
@@ -2392,18 +3309,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:L51">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>E4=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
       <formula>61%</formula>
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
       <formula>31%</formula>
       <formula>60%</formula>
     </cfRule>
@@ -2445,50 +3362,50 @@
       <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="8" max="8" width="10.87890625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="35" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="37" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="3">
         <v>20</v>
       </c>
@@ -2501,9 +3418,9 @@
       <c r="G3" s="3">
         <v>29</v>
       </c>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2529,7 +3446,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2555,7 +3472,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2581,7 +3498,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2607,7 +3524,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2633,7 +3550,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -2659,7 +3576,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -2685,7 +3602,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -2711,7 +3628,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -2737,7 +3654,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -2763,7 +3680,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -2789,7 +3706,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -2815,7 +3732,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -2841,7 +3758,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -2867,7 +3784,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -2893,7 +3810,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -2919,7 +3836,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -2945,7 +3862,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -2971,7 +3888,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -2997,7 +3914,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -3023,7 +3940,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -3049,7 +3966,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -3075,7 +3992,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -3101,7 +4018,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -3136,23 +4053,6 @@
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:G27">
-    <cfRule type="expression" dxfId="20" priority="2">
-      <formula>D4=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
-      <formula>0</formula>
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="between">
-      <formula>61%</formula>
-      <formula>100%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="between">
-      <formula>31%</formula>
-      <formula>60%</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C4:C27">
     <cfRule type="dataBar" priority="8">
       <dataBar>
@@ -3165,6 +4065,23 @@
           <x14:id>{F6641EF2-81F1-4C01-ABFF-88951841D7E5}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:G27">
+    <cfRule type="expression" dxfId="19" priority="2">
+      <formula>D4=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
+      <formula>61%</formula>
+      <formula>100%</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
+      <formula>31%</formula>
+      <formula>60%</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -3205,50 +4122,50 @@
       <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="8" max="8" width="10.87890625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="35" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="37" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="3">
         <v>3</v>
       </c>
@@ -3261,9 +4178,9 @@
       <c r="G3" s="3">
         <v>12</v>
       </c>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -3291,7 +4208,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -3319,7 +4236,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -3347,7 +4264,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -3375,7 +4292,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -3403,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -3431,7 +4348,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -3459,7 +4376,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -3487,7 +4404,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -3515,7 +4432,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -3543,7 +4460,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -3571,7 +4488,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -3599,7 +4516,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -3627,7 +4544,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -3655,7 +4572,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -3683,7 +4600,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -3711,7 +4628,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -3739,7 +4656,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -3767,7 +4684,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -3795,7 +4712,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -3823,7 +4740,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -3851,7 +4768,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -3879,7 +4796,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -3907,7 +4824,7 @@
         <v>4.0625</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -3944,23 +4861,6 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="D2:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:G27">
-    <cfRule type="expression" dxfId="16" priority="1">
-      <formula>D4=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="between">
-      <formula>0</formula>
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="between">
-      <formula>61%</formula>
-      <formula>100%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="between">
-      <formula>31%</formula>
-      <formula>60%</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C4:C27">
     <cfRule type="dataBar" priority="5">
       <dataBar>
@@ -3973,6 +4873,23 @@
           <x14:id>{EDE2EBBA-EE72-4D86-AB44-3F8A33B2BB1D}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:G27">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>D4=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
+      <formula>61%</formula>
+      <formula>100%</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
+      <formula>31%</formula>
+      <formula>60%</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4013,56 +4930,56 @@
       <selection activeCell="C4" sqref="C4:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="11" max="11" width="10.87890625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="35" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="37" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="3">
         <v>10</v>
       </c>
@@ -4084,9 +5001,9 @@
       <c r="J3" s="3">
         <v>31</v>
       </c>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -4116,14 +5033,14 @@
         <v>1</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K4" s="19">
         <f>5*C4</f>
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -4153,14 +5070,14 @@
         <v>1</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5" s="19">
         <f t="shared" ref="K5:K27" si="1">5*C5</f>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -4190,14 +5107,14 @@
         <v>0.75</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K6" s="19">
         <f t="shared" si="1"/>
         <v>4.375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -4227,14 +5144,14 @@
         <v>1</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K7" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -4264,14 +5181,14 @@
         <v>0</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -4301,14 +5218,14 @@
         <v>1</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K9" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -4338,14 +5255,14 @@
         <v>1</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K10" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -4375,14 +5292,14 @@
         <v>1</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K11" s="19">
         <f t="shared" si="1"/>
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -4412,14 +5329,14 @@
         <v>0.5</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -4449,14 +5366,14 @@
         <v>0.5</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K13" s="19">
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -4486,14 +5403,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K14" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -4523,14 +5440,14 @@
         <v>1</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K15" s="19">
         <f t="shared" si="1"/>
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -4565,7 +5482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -4595,14 +5512,14 @@
         <v>1</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K17" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -4632,14 +5549,14 @@
         <v>1</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -4669,14 +5586,14 @@
         <v>0.5</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K19" s="19">
         <f t="shared" si="1"/>
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -4711,7 +5628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -4746,7 +5663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -4781,7 +5698,7 @@
         <v>3.541666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -4816,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -4851,7 +5768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -4886,7 +5803,7 @@
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -4921,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -4965,23 +5882,6 @@
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="D2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:J27">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>D4=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="between">
-      <formula>0</formula>
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
-      <formula>61%</formula>
-      <formula>100%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="between">
-      <formula>31%</formula>
-      <formula>60%</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C4:C27">
     <cfRule type="dataBar" priority="5">
       <dataBar>
@@ -4994,6 +5894,23 @@
           <x14:id>{DBEA70ED-E5CA-4CB0-B62C-DF647251B1E5}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:J27">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>D4=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
+      <formula>61%</formula>
+      <formula>100%</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+      <formula>31%</formula>
+      <formula>60%</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5026,64 +5943,64 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1A6DC3-3164-4063-BB88-F7E82541B370}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="11" max="11" width="10.87890625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="35" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="3">
         <v>5</v>
       </c>
@@ -5105,9 +6022,9 @@
       <c r="J3" s="3">
         <v>28</v>
       </c>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -5116,13 +6033,13 @@
       </c>
       <c r="C4" s="1">
         <f>IFERROR(AVERAGE(D4:J4),0%)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.75</v>
-      </c>
-      <c r="D4" s="18">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.5</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -5131,10 +6048,10 @@
       <c r="J4" s="18"/>
       <c r="K4" s="19">
         <f>5*C4</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -5143,13 +6060,13 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C27" si="0">IFERROR(AVERAGE(D5:J5),0%)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <v>1</v>
       </c>
       <c r="E5" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -5158,10 +6075,10 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19">
         <f t="shared" ref="K5:K27" si="1">5*C5</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -5170,13 +6087,13 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D6" s="18">
         <v>1</v>
       </c>
       <c r="E6" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -5185,10 +6102,10 @@
       <c r="J6" s="18"/>
       <c r="K6" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -5197,13 +6114,13 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -5212,10 +6129,10 @@
       <c r="J7" s="18"/>
       <c r="K7" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -5242,7 +6159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -5251,13 +6168,13 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D9" s="18">
         <v>1</v>
       </c>
       <c r="E9" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -5266,10 +6183,10 @@
       <c r="J9" s="18"/>
       <c r="K9" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -5278,13 +6195,13 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D10" s="18">
         <v>1</v>
       </c>
       <c r="E10" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -5293,10 +6210,10 @@
       <c r="J10" s="18"/>
       <c r="K10" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -5305,13 +6222,13 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
         <v>0.75</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.5</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -5320,10 +6237,10 @@
       <c r="J11" s="18"/>
       <c r="K11" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -5332,13 +6249,13 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
       </c>
       <c r="E12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -5347,10 +6264,10 @@
       <c r="J12" s="18"/>
       <c r="K12" s="19">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -5359,13 +6276,13 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="18">
         <v>1</v>
       </c>
       <c r="E13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -5374,10 +6291,10 @@
       <c r="J13" s="18"/>
       <c r="K13" s="19">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -5386,13 +6303,13 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D14" s="18">
         <v>1</v>
       </c>
       <c r="E14" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -5401,10 +6318,10 @@
       <c r="J14" s="18"/>
       <c r="K14" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -5413,13 +6330,13 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D15" s="18">
         <v>1</v>
       </c>
       <c r="E15" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -5428,10 +6345,10 @@
       <c r="J15" s="18"/>
       <c r="K15" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -5440,13 +6357,13 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D16" s="18">
         <v>1</v>
       </c>
       <c r="E16" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -5455,10 +6372,10 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -5485,7 +6402,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -5494,13 +6411,13 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D18" s="18">
         <v>1</v>
       </c>
       <c r="E18" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -5509,10 +6426,10 @@
       <c r="J18" s="18"/>
       <c r="K18" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -5521,13 +6438,13 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="18">
         <v>1</v>
       </c>
       <c r="E19" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -5536,10 +6453,10 @@
       <c r="J19" s="18"/>
       <c r="K19" s="19">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -5548,13 +6465,13 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
       </c>
       <c r="E20" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -5563,10 +6480,10 @@
       <c r="J20" s="18"/>
       <c r="K20" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -5575,13 +6492,13 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
       </c>
       <c r="E21" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -5590,10 +6507,10 @@
       <c r="J21" s="18"/>
       <c r="K21" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -5602,13 +6519,13 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -5617,10 +6534,10 @@
       <c r="J22" s="18"/>
       <c r="K22" s="19">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -5629,13 +6546,13 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D23" s="18">
         <v>1</v>
       </c>
       <c r="E23" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -5644,10 +6561,10 @@
       <c r="J23" s="18"/>
       <c r="K23" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -5656,13 +6573,13 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D24" s="18">
         <v>1</v>
       </c>
       <c r="E24" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -5671,10 +6588,10 @@
       <c r="J24" s="18"/>
       <c r="K24" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -5701,7 +6618,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -5710,13 +6627,13 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D26" s="18">
         <v>1</v>
       </c>
       <c r="E26" s="18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -5725,10 +6642,10 @@
       <c r="J26" s="18"/>
       <c r="K26" s="19">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9">
         <v>24</v>
       </c>
@@ -5737,13 +6654,13 @@
       </c>
       <c r="C27" s="12">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D27" s="23">
         <v>1</v>
       </c>
       <c r="E27" s="23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -5752,7 +6669,7 @@
       <c r="J27" s="23"/>
       <c r="K27" s="24">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5764,23 +6681,6 @@
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="D2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:J27">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>D4=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
-      <formula>0</formula>
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
-      <formula>61%</formula>
-      <formula>100%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
-      <formula>31%</formula>
-      <formula>60%</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C4:C27">
     <cfRule type="dataBar" priority="5">
       <dataBar>
@@ -5793,6 +6693,23 @@
           <x14:id>{9704579B-8971-4E59-A1B0-E8D68748E91B}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:J27">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>D4=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+      <formula>61%</formula>
+      <formula>100%</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+      <formula>31%</formula>
+      <formula>60%</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5823,95 +6740,107 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA9701-CF70-4D97-8BC5-C4467CEF0705}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB5FD4E-CD8E-41DC-AFDB-A44D8631CDF7}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="106" zoomScaleNormal="106" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="4" max="4" width="7.41015625" customWidth="1"/>
+    <col min="5" max="5" width="6.8203125" customWidth="1"/>
+    <col min="6" max="6" width="5.8203125" customWidth="1"/>
+    <col min="7" max="7" width="6.3515625" customWidth="1"/>
+    <col min="8" max="8" width="5.87890625" customWidth="1"/>
+    <col min="9" max="9" width="6.5859375" customWidth="1"/>
+    <col min="10" max="10" width="6.87890625" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" customWidth="1"/>
+    <col min="12" max="12" width="6.17578125" customWidth="1"/>
+    <col min="13" max="13" width="10.87890625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="35" t="s">
+      <c r="D1" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="41"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3">
+        <v>23</v>
+      </c>
+      <c r="K3" s="26">
+        <v>25</v>
+      </c>
+      <c r="L3" s="26">
+        <v>30</v>
+      </c>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -5919,28 +6848,26 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <f>IFERROR(AVERAGE(D4:J4),0%)</f>
-        <v>0.86805555555555569</v>
+        <f>IFERROR(AVERAGE(D4:L4),0%)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0.83333333333333337</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="19">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="19">
         <f>5*C4</f>
-        <v>4.3402777777777786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -5948,28 +6875,26 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C27" si="0">IFERROR(AVERAGE(D5:J5),0%)</f>
-        <v>0.90277777777777779</v>
+        <f t="shared" ref="C5:C27" si="0">IFERROR(AVERAGE(D5:L5),0%)</f>
+        <v>0.5</v>
       </c>
       <c r="D5" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="19">
-        <f t="shared" ref="K5:K27" si="1">5*C5</f>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="19">
+        <f t="shared" ref="M5:M27" si="1">5*C5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -5978,27 +6903,25 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.88194444444444453</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0.875</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="19">
-        <f t="shared" si="1"/>
-        <v>4.4097222222222223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -6007,27 +6930,25 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
+        <v>1</v>
       </c>
       <c r="D7" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -6036,27 +6957,25 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="20">
-        <f t="shared" si="1"/>
-        <v>1.3888888888888888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -6065,27 +6984,25 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -6094,27 +7011,25 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.92361111111111116</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="19">
-        <f t="shared" si="1"/>
-        <v>4.6180555555555554</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -6123,27 +7038,25 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.90972222222222232</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F11" s="18">
-        <v>0.95833333333333337</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5486111111111116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -6152,27 +7065,25 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>0.69444444444444453</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="19">
-        <f t="shared" si="1"/>
-        <v>3.4722222222222228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -6181,27 +7092,25 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>0.81944444444444453</v>
+        <v>0.5</v>
       </c>
       <c r="D13" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.75</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="19">
-        <f t="shared" si="1"/>
-        <v>4.0972222222222223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -6210,27 +7119,25 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>0.92361111111111116</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="19">
-        <f t="shared" si="1"/>
-        <v>4.6180555555555554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -6239,27 +7146,25 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>0.88888888888888895</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.95833333333333337</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="19">
-        <f t="shared" si="1"/>
-        <v>4.4444444444444446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -6268,27 +7173,25 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
+        <v>1</v>
       </c>
       <c r="D16" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -6297,27 +7200,25 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
+        <v>0.25</v>
       </c>
       <c r="D17" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="19">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -6326,27 +7227,25 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -6355,27 +7254,25 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>0.84027777777777779</v>
+        <v>0.5</v>
       </c>
       <c r="D19" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.75</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="19">
-        <f t="shared" si="1"/>
-        <v>4.2013888888888893</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -6384,27 +7281,25 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>0.92361111111111116</v>
+        <v>1</v>
       </c>
       <c r="D20" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="19">
-        <f t="shared" si="1"/>
-        <v>4.6180555555555554</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -6413,27 +7308,25 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
+        <v>1</v>
       </c>
       <c r="D21" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -6442,27 +7335,25 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>0.80555555555555569</v>
+        <v>0.5</v>
       </c>
       <c r="D22" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0.70833333333333337</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="19">
-        <f t="shared" si="1"/>
-        <v>4.0277777777777786</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -6471,27 +7362,25 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>0.92361111111111116</v>
+        <v>0.5</v>
       </c>
       <c r="D23" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="19">
-        <f t="shared" si="1"/>
-        <v>4.6180555555555554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -6500,27 +7389,25 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>0.92361111111111116</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="19">
-        <f t="shared" si="1"/>
-        <v>4.6180555555555554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -6529,27 +7416,25 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>0.90972222222222232</v>
+        <v>0.5</v>
       </c>
       <c r="D25" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0.9375</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0.95833333333333337</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5486111111111116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -6558,53 +7443,54 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>0.88194444444444453</v>
+        <v>1</v>
       </c>
       <c r="D26" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0.8125</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="19">
-        <f t="shared" si="1"/>
-        <v>4.4097222222222223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.35" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9">
         <v>24</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0.875</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="24">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="D28" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -6612,28 +7498,11 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="D1:J2"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="D1:L2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:J27">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>D4=""</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
-      <formula>0</formula>
-      <formula>0.3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
-      <formula>61%</formula>
-      <formula>100%</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
-      <formula>31%</formula>
-      <formula>60%</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C4:C27">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -6641,29 +7510,41 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E53F77AE-B645-410F-ACBB-DEFBC41D9BEF}</x14:id>
+          <x14:id>{6202E490-9098-483B-925C-C63C27C1EF4C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K27">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>3</formula>
+  <conditionalFormatting sqref="D4:L27">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>D4=""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
+      <formula>0</formula>
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+      <formula>61%</formula>
+      <formula>100%</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+      <formula>31%</formula>
+      <formula>60%</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:J27" xr:uid="{7750D075-E644-4625-B379-F5888574BCBA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:L27" xr:uid="{50E67685-4E13-48A1-B676-C0B9EE0E2955}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="122" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E53F77AE-B645-410F-ACBB-DEFBC41D9BEF}">
+          <x14:cfRule type="dataBar" id="{6202E490-9098-483B-925C-C63C27C1EF4C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
